--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2420" yWindow="0" windowWidth="20160" windowHeight="6420" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="alldata" sheetId="1" r:id="rId1"/>
@@ -1031,8 +1031,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1097,7 +1119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="79">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1126,6 +1148,17 @@
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1154,6 +1187,17 @@
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -46260,8 +46304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -46270,17 +46314,11 @@
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -46294,40 +46332,40 @@
         <v>300</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1">
@@ -46335,44 +46373,45 @@
         <v>301</v>
       </c>
       <c r="D2" s="2">
+        <v>0.52568807339449564</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.55227272727272736</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.51753623188405795</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.5299999999999998</v>
+      </c>
+      <c r="H2" s="2">
         <v>0.26408256880733944</v>
       </c>
-      <c r="E2" s="2">
-        <v>0.26151376146788985</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.52568807339449564</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="I2" s="2">
         <v>0.25163636363636355</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.30068181818181811</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.55227272727272736</v>
       </c>
       <c r="J2" s="2">
         <v>0.23198067632850233</v>
       </c>
       <c r="K2" s="2">
+        <v>0.21584821428571432</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.26151376146788985</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.30068181818181811</v>
+      </c>
+      <c r="N2" s="2">
         <v>0.2852657004830918</v>
       </c>
-      <c r="L2" s="2">
-        <v>0.51753623188405795</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.21584821428571432</v>
-      </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>0.31437500000000002</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0.5299999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
